--- a/xls/square_high_un_16_tri3_12.xlsx
+++ b/xls/square_high_un_16_tri3_12.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12">
-        <v>864</v>
+        <v>1104</v>
       </c>
       <c r="I12">
-        <v>-1.4132621034301769</v>
+        <v>-2.2636525511413472</v>
       </c>
       <c r="J12">
-        <v>-1.6021815043749905</v>
+        <v>-1.9560447524062154</v>
       </c>
       <c r="K12">
-        <v>-0.6262922086266133</v>
+        <v>-0.9810192680910594</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13">
-        <v>1014</v>
+        <v>1266</v>
       </c>
       <c r="I13">
-        <v>-1.8331478751133967</v>
+        <v>-2.2528829497437215</v>
       </c>
       <c r="J13">
-        <v>-1.796799159897845</v>
+        <v>-1.8381221577787692</v>
       </c>
       <c r="K13">
-        <v>-0.7861023752263204</v>
+        <v>-0.6207014163935318</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
       <c r="H14">
-        <v>1176</v>
+        <v>1362</v>
       </c>
       <c r="I14">
-        <v>-2.219307847475265</v>
+        <v>-2.17591795086818</v>
       </c>
       <c r="J14">
-        <v>-1.8302974041453879</v>
+        <v>-1.7601201468854024</v>
       </c>
       <c r="K14">
-        <v>-0.6269398070798493</v>
+        <v>-0.4317981874387678</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15">
-        <v>1350</v>
+        <v>1596</v>
       </c>
       <c r="I15">
-        <v>-1.9773336492178946</v>
+        <v>-1.7257186782758418</v>
       </c>
       <c r="J15">
-        <v>-1.6391383828318105</v>
+        <v>-1.4443488545529473</v>
       </c>
       <c r="K15">
-        <v>-0.1579937389413339</v>
+        <v>0.059486962737186816</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="H16">
-        <v>1536</v>
+        <v>1842</v>
       </c>
       <c r="I16">
-        <v>-1.6741921975933252</v>
+        <v>-1.6378346468611105</v>
       </c>
       <c r="J16">
-        <v>-1.4434670626420083</v>
+        <v>-1.4317297743309079</v>
       </c>
       <c r="K16">
-        <v>0.1853998645391674</v>
+        <v>-0.05922615801638259</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F17">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17">
-        <v>1734</v>
+        <v>2070</v>
       </c>
       <c r="I17">
-        <v>-1.3469328020579683</v>
+        <v>-0.6088649728859894</v>
       </c>
       <c r="J17">
-        <v>-1.2184346103413182</v>
+        <v>-0.553936868099754</v>
       </c>
       <c r="K17">
-        <v>0.49561749484063244</v>
+        <v>1.5263508182437844</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18">
-        <v>1944</v>
+        <v>2388</v>
       </c>
       <c r="I18">
-        <v>-0.8652432881395404</v>
+        <v>-0.04011714390723274</v>
       </c>
       <c r="J18">
-        <v>-0.7746039912630722</v>
+        <v>-0.036618561055909375</v>
       </c>
       <c r="K18">
-        <v>1.2481087080338236</v>
+        <v>2.5103843753233734</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F19">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19">
-        <v>2166</v>
+        <v>2676</v>
       </c>
       <c r="I19">
-        <v>-0.33144635809595013</v>
+        <v>-1.945440966489651e-6</v>
       </c>
       <c r="J19">
-        <v>-0.2966149322583584</v>
+        <v>-3.107865987286524e-6</v>
       </c>
       <c r="K19">
-        <v>1.9052510349302745</v>
+        <v>1.773075631777809</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -756,22 +756,22 @@
         <v>12</v>
       </c>
       <c r="F20">
-        <v>441</v>
+        <v>564</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20">
-        <v>2400</v>
+        <v>3138</v>
       </c>
       <c r="I20">
-        <v>-0.003806617608056992</v>
+        <v>-1.315930449414204e-6</v>
       </c>
       <c r="J20">
-        <v>-0.00315091760398658</v>
+        <v>-1.6809488694822402e-6</v>
       </c>
       <c r="K20">
-        <v>2.8009949406203662</v>
+        <v>1.612137596459813</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -791,22 +791,22 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21">
-        <v>2646</v>
+        <v>3330</v>
       </c>
       <c r="I21">
-        <v>-2.0721041788604984e-6</v>
+        <v>-8.046038232986791e-7</v>
       </c>
       <c r="J21">
-        <v>-6.820931340000065e-6</v>
+        <v>-1.1297494935603117e-6</v>
       </c>
       <c r="K21">
-        <v>1.9951821522955802</v>
+        <v>1.5389691616514112</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -826,22 +826,22 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>529</v>
+        <v>668</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22">
-        <v>2904</v>
+        <v>3738</v>
       </c>
       <c r="I22">
-        <v>-7.78732427744072e-7</v>
+        <v>-1.0589285385995394e-6</v>
       </c>
       <c r="J22">
-        <v>-2.626511153996935e-6</v>
+        <v>-1.1274102998308652e-6</v>
       </c>
       <c r="K22">
-        <v>1.8059561540399802</v>
+        <v>1.4877547505645974</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -861,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>576</v>
+        <v>741</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23">
-        <v>3174</v>
+        <v>4164</v>
       </c>
       <c r="I23">
-        <v>-1.8546605124934887e-6</v>
+        <v>-7.104420241736233e-7</v>
       </c>
       <c r="J23">
-        <v>-2.6989286462503788e-6</v>
+        <v>-7.886913746550936e-7</v>
       </c>
       <c r="K23">
-        <v>1.7390113646627015</v>
+        <v>1.4198089216816356</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -896,22 +896,22 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>625</v>
+        <v>797</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>3456</v>
+        <v>4488</v>
       </c>
       <c r="I24">
-        <v>-6.518064456461438e-7</v>
+        <v>-6.830114472889762e-7</v>
       </c>
       <c r="J24">
-        <v>-1.234359852618691e-6</v>
+        <v>-7.730238630246662e-7</v>
       </c>
       <c r="K24">
-        <v>1.6030145933871378</v>
+        <v>1.418645469996359</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -931,22 +931,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-1.1482087117402403e-6</v>
+        <v>-6.758704784010081e-7</v>
       </c>
       <c r="J25">
-        <v>-1.5294718510139201e-6</v>
+        <v>-7.072499330904768e-7</v>
       </c>
       <c r="K25">
-        <v>1.60362468066947</v>
+        <v>1.3822550701034464</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -966,22 +966,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>-5.233463744299955e-7</v>
+        <v>-6.406537557172597e-7</v>
       </c>
       <c r="J26">
-        <v>-9.011146675924379e-7</v>
+        <v>-6.609946129560471e-7</v>
       </c>
       <c r="K26">
-        <v>1.5176749203724822</v>
+        <v>1.3644391311809396</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1001,22 +1001,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-8.157988513002405e-7</v>
+        <v>-6.198225566329896e-7</v>
       </c>
       <c r="J27">
-        <v>-1.0447703459383942e-6</v>
+        <v>-6.398125533540875e-7</v>
       </c>
       <c r="K27">
-        <v>1.5074833430390602</v>
+        <v>1.356811119767768</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1036,22 +1036,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-6.870805942060592e-7</v>
+        <v>-6.312332343754472e-7</v>
       </c>
       <c r="J28">
-        <v>-8.023134087332525e-7</v>
+        <v>-6.471197172264238e-7</v>
       </c>
       <c r="K28">
-        <v>1.4346931542862185</v>
+        <v>1.357617845757978</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1071,22 +1071,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-7.360929137589471e-7</v>
+        <v>-6.000010277712826e-7</v>
       </c>
       <c r="J29">
-        <v>-7.798149990333351e-7</v>
+        <v>-6.259979856536911e-7</v>
       </c>
       <c r="K29">
-        <v>1.4070778470155678</v>
+        <v>1.3551097610842815</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1106,22 +1106,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-6.911054132714741e-7</v>
+        <v>-5.898067772973474e-7</v>
       </c>
       <c r="J30">
-        <v>-7.146536468669374e-7</v>
+        <v>-6.01558886483645e-7</v>
       </c>
       <c r="K30">
-        <v>1.3822420515624712</v>
+        <v>1.340611255007299</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1141,22 +1141,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-6.033090018927131e-7</v>
+        <v>-5.794360056236396e-7</v>
       </c>
       <c r="J31">
-        <v>-6.366426698376886e-7</v>
+        <v>-5.90406361636362e-7</v>
       </c>
       <c r="K31">
-        <v>1.3618478594080785</v>
+        <v>1.3363797990631907</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1176,22 +1176,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-6.363532392053223e-7</v>
+        <v>-5.598697477454541e-7</v>
       </c>
       <c r="J32">
-        <v>-6.656405807392871e-7</v>
+        <v>-5.728848244985535e-7</v>
       </c>
       <c r="K32">
-        <v>1.3686931551018622</v>
+        <v>1.3307972936110282</v>
       </c>
     </row>
   </sheetData>
